--- a/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,10 +498,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15883</v>
+        <v>15804</v>
       </c>
       <c r="D2" t="n">
-        <v>19982446</v>
+        <v>19881073</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +546,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3470</v>
+        <v>3076</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -622,10 +690,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6077</v>
+        <v>6066</v>
       </c>
       <c r="D6" t="n">
-        <v>8896856</v>
+        <v>8880989</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +786,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3188</v>
+        <v>3178</v>
       </c>
       <c r="D8" t="n">
-        <v>4615075</v>
+        <v>4600239</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +930,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D11" t="n">
-        <v>482104</v>
+        <v>476938</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +978,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10550</v>
+        <v>10496</v>
       </c>
       <c r="D12" t="n">
-        <v>13305539</v>
+        <v>13243623</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1102,10 +1170,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3171</v>
+        <v>3164</v>
       </c>
       <c r="D16" t="n">
-        <v>4622785</v>
+        <v>4612285</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1198,10 +1266,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="n">
-        <v>2017414</v>
+        <v>2014817</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1314,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D19" t="n">
-        <v>467524</v>
+        <v>466024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D20" t="n">
-        <v>267438</v>
+        <v>262103</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1342,10 +1410,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13833</v>
+        <v>13768</v>
       </c>
       <c r="D21" t="n">
-        <v>16998594</v>
+        <v>16925589</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1534,10 +1602,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4811</v>
+        <v>4797</v>
       </c>
       <c r="D25" t="n">
-        <v>7043702</v>
+        <v>7024458</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1630,10 +1698,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="D27" t="n">
-        <v>2392151</v>
+        <v>2383151</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,10 +1842,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="n">
-        <v>417170</v>
+        <v>415670</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1890,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6187</v>
+        <v>6170</v>
       </c>
       <c r="D31" t="n">
-        <v>8213290</v>
+        <v>8193659</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1966,10 +2034,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D34" t="n">
-        <v>2260361</v>
+        <v>2257426</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2130,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D36" t="n">
-        <v>791025</v>
+        <v>788025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2178,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D37" t="n">
-        <v>696326</v>
+        <v>694826</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2254,10 +2322,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21225</v>
+        <v>21136</v>
       </c>
       <c r="D40" t="n">
-        <v>26178890</v>
+        <v>26075433</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2542,10 +2610,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7647</v>
+        <v>7626</v>
       </c>
       <c r="D46" t="n">
-        <v>11235197</v>
+        <v>11203697</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2638,10 +2706,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3719</v>
+        <v>3707</v>
       </c>
       <c r="D48" t="n">
-        <v>5382271</v>
+        <v>5366379</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2782,10 +2850,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D51" t="n">
-        <v>750123</v>
+        <v>742343</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2898,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7924</v>
+        <v>7905</v>
       </c>
       <c r="D52" t="n">
-        <v>10137436</v>
+        <v>10113163</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2926,10 +2994,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>15614</v>
+        <v>14114</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3022,10 +3090,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="D56" t="n">
-        <v>3940761</v>
+        <v>3936621</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D58" t="n">
-        <v>1411444</v>
+        <v>1406944</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3214,10 +3282,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" t="n">
-        <v>340961</v>
+        <v>339461</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3330,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35118</v>
+        <v>34921</v>
       </c>
       <c r="D61" t="n">
-        <v>45270998</v>
+        <v>45027182</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3454,10 +3522,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12732</v>
+        <v>12702</v>
       </c>
       <c r="D65" t="n">
-        <v>18675632</v>
+        <v>18634892</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3550,10 +3618,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4964</v>
+        <v>4947</v>
       </c>
       <c r="D67" t="n">
-        <v>7178549</v>
+        <v>7153314</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3714,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D69" t="n">
-        <v>397984</v>
+        <v>392536</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3742,10 +3810,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D71" t="n">
-        <v>432663</v>
+        <v>431163</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3838,10 +3906,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>44866</v>
+        <v>44639</v>
       </c>
       <c r="D73" t="n">
-        <v>57437768</v>
+        <v>57158018</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3934,10 +4002,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
-        <v>46101</v>
+        <v>44601</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17724</v>
+        <v>17680</v>
       </c>
       <c r="D77" t="n">
-        <v>25981166</v>
+        <v>25916453</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4126,10 +4194,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9024</v>
+        <v>8991</v>
       </c>
       <c r="D79" t="n">
-        <v>13033373</v>
+        <v>12986515</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4222,10 +4290,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D81" t="n">
-        <v>460154</v>
+        <v>459304</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4318,10 +4386,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="D83" t="n">
-        <v>1058951</v>
+        <v>1049060</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4434,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>24045</v>
+        <v>23904</v>
       </c>
       <c r="D84" t="n">
-        <v>30341760</v>
+        <v>30167463</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4558,10 +4626,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8488</v>
+        <v>8466</v>
       </c>
       <c r="D88" t="n">
-        <v>12460340</v>
+        <v>12427494</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4654,10 +4722,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4728</v>
+        <v>4719</v>
       </c>
       <c r="D90" t="n">
-        <v>6836420</v>
+        <v>6826416</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4750,10 +4818,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D92" t="n">
-        <v>1020425</v>
+        <v>1013447</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4866,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>21323</v>
+        <v>21209</v>
       </c>
       <c r="D93" t="n">
-        <v>26781765</v>
+        <v>26644819</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4914,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" t="n">
-        <v>30634</v>
+        <v>29134</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4990,10 +5058,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8923</v>
+        <v>8894</v>
       </c>
       <c r="D97" t="n">
-        <v>13072470</v>
+        <v>13028970</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5086,10 +5154,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3218</v>
+        <v>3206</v>
       </c>
       <c r="D99" t="n">
-        <v>4607722</v>
+        <v>4590012</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5278,10 +5346,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D103" t="n">
-        <v>576210</v>
+        <v>570210</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5326,10 +5394,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>78525</v>
+        <v>77863</v>
       </c>
       <c r="D104" t="n">
-        <v>100736881</v>
+        <v>99896885</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5566,10 +5634,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109" t="n">
-        <v>213009</v>
+        <v>211509</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5662,10 +5730,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>29742</v>
+        <v>29661</v>
       </c>
       <c r="D111" t="n">
-        <v>43674092</v>
+        <v>43557508</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5758,10 +5826,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20071</v>
+        <v>19989</v>
       </c>
       <c r="D113" t="n">
-        <v>28995177</v>
+        <v>28876766</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5902,10 +5970,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D116" t="n">
-        <v>929410</v>
+        <v>927910</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6046,10 +6114,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1733</v>
+        <v>1715</v>
       </c>
       <c r="D119" t="n">
-        <v>2443066</v>
+        <v>2417443</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6162,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26906</v>
+        <v>26798</v>
       </c>
       <c r="D120" t="n">
-        <v>35546426</v>
+        <v>35411749</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6286,10 +6354,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9514</v>
+        <v>9495</v>
       </c>
       <c r="D124" t="n">
-        <v>13960197</v>
+        <v>13932327</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6382,10 +6450,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3148</v>
+        <v>3140</v>
       </c>
       <c r="D126" t="n">
-        <v>4575573</v>
+        <v>4564529</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6526,10 +6594,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D129" t="n">
-        <v>440535</v>
+        <v>431205</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6574,10 +6642,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15294</v>
+        <v>15211</v>
       </c>
       <c r="D130" t="n">
-        <v>19085527</v>
+        <v>18993523</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6786,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7574</v>
+        <v>7553</v>
       </c>
       <c r="D133" t="n">
-        <v>11092529</v>
+        <v>11062741</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6814,10 +6882,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="D135" t="n">
-        <v>3076711</v>
+        <v>3061711</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -7006,10 +7074,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D139" t="n">
-        <v>511146</v>
+        <v>503928</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7122,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>13215</v>
+        <v>13145</v>
       </c>
       <c r="D140" t="n">
-        <v>16523398</v>
+        <v>16449577</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7314,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6104</v>
+        <v>6090</v>
       </c>
       <c r="D144" t="n">
-        <v>8943005</v>
+        <v>8922005</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7342,10 +7410,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="D146" t="n">
-        <v>2794324</v>
+        <v>2780824</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7486,10 +7554,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D149" t="n">
-        <v>466631</v>
+        <v>463631</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7534,10 +7602,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5847</v>
+        <v>5821</v>
       </c>
       <c r="D150" t="n">
-        <v>7156398</v>
+        <v>7127991</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7678,10 +7746,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D153" t="n">
-        <v>2961149</v>
+        <v>2959649</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7794,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D154" t="n">
-        <v>956907</v>
+        <v>953907</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7842,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D155" t="n">
-        <v>141867</v>
+        <v>138867</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7986,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7262</v>
+        <v>7224</v>
       </c>
       <c r="D158" t="n">
-        <v>9031258</v>
+        <v>8987567</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8062,10 +8130,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="D161" t="n">
-        <v>4089702</v>
+        <v>4085202</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8178,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D162" t="n">
-        <v>1947410</v>
+        <v>1944410</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8226,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D163" t="n">
-        <v>215845</v>
+        <v>213095</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8370,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5494</v>
+        <v>5480</v>
       </c>
       <c r="D166" t="n">
-        <v>6932028</v>
+        <v>6915337</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8542,10 +8610,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="D171" t="n">
-        <v>2910833</v>
+        <v>2896453</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8638,10 +8706,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D173" t="n">
-        <v>975298</v>
+        <v>967798</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8782,10 +8850,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>15456</v>
+        <v>15400</v>
       </c>
       <c r="D176" t="n">
-        <v>19448397</v>
+        <v>19377628</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -9022,10 +9090,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6235</v>
+        <v>6227</v>
       </c>
       <c r="D181" t="n">
-        <v>9110104</v>
+        <v>9098104</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9138,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="D182" t="n">
-        <v>3116043</v>
+        <v>3102644</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9214,10 +9282,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D185" t="n">
-        <v>570276</v>
+        <v>565776</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9330,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2982</v>
+        <v>2964</v>
       </c>
       <c r="D186" t="n">
-        <v>3764646</v>
+        <v>3742237</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9426,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="D188" t="n">
-        <v>2104504</v>
+        <v>2098428</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9454,10 +9522,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D190" t="n">
-        <v>788761</v>
+        <v>787261</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9598,10 +9666,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D193" t="n">
-        <v>68215</v>
+        <v>66715</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9714,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8964</v>
+        <v>8935</v>
       </c>
       <c r="D194" t="n">
-        <v>11219931</v>
+        <v>11183294</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9838,10 +9906,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3358</v>
+        <v>3347</v>
       </c>
       <c r="D198" t="n">
-        <v>4934028</v>
+        <v>4917543</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9954,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="D199" t="n">
-        <v>2255566</v>
+        <v>2246566</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +10002,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D200" t="n">
-        <v>257372</v>
+        <v>253130</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10078,10 +10146,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>16876</v>
+        <v>16806</v>
       </c>
       <c r="D203" t="n">
-        <v>21109991</v>
+        <v>21034313</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10242,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
-        <v>30547</v>
+        <v>29047</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10270,10 +10338,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>7505</v>
+        <v>7493</v>
       </c>
       <c r="D207" t="n">
-        <v>11025617</v>
+        <v>11008515</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10386,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="D208" t="n">
-        <v>1734065</v>
+        <v>1724132</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10434,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D209" t="n">
-        <v>374366</v>
+        <v>368366</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10482,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D210" t="n">
-        <v>621468</v>
+        <v>616968</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10462,10 +10530,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>25586</v>
+        <v>25480</v>
       </c>
       <c r="D211" t="n">
-        <v>32327165</v>
+        <v>32199380</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -10510,10 +10578,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D212" t="n">
-        <v>36163</v>
+        <v>34663</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10654,10 +10722,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>10323</v>
+        <v>10288</v>
       </c>
       <c r="D215" t="n">
-        <v>15090552</v>
+        <v>15044486</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10750,10 +10818,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2580</v>
+        <v>2561</v>
       </c>
       <c r="D217" t="n">
-        <v>3727763</v>
+        <v>3699674</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10894,10 +10962,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D220" t="n">
-        <v>783838</v>
+        <v>777391</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +11010,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>27802</v>
+        <v>27662</v>
       </c>
       <c r="D221" t="n">
-        <v>35149636</v>
+        <v>34978771</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -11182,10 +11250,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>14475</v>
+        <v>14446</v>
       </c>
       <c r="D226" t="n">
-        <v>21250517</v>
+        <v>21207817</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11278,10 +11346,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2557</v>
+        <v>2550</v>
       </c>
       <c r="D228" t="n">
-        <v>3667953</v>
+        <v>3659493</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11374,10 +11442,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D230" t="n">
-        <v>493844</v>
+        <v>489344</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11422,10 +11490,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="D231" t="n">
-        <v>963508</v>
+        <v>952808</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11470,10 +11538,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23748</v>
+        <v>23631</v>
       </c>
       <c r="D232" t="n">
-        <v>30022496</v>
+        <v>29879613</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11586,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>20363</v>
+        <v>18863</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11634,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D234" t="n">
-        <v>50442</v>
+        <v>48462</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11758,10 +11826,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>10961</v>
+        <v>10939</v>
       </c>
       <c r="D238" t="n">
-        <v>16072921</v>
+        <v>16040940</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11874,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D239" t="n">
-        <v>3504366</v>
+        <v>3499866</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11950,10 +12018,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D242" t="n">
-        <v>559725</v>
+        <v>553851</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +12066,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7714</v>
+        <v>7685</v>
       </c>
       <c r="D243" t="n">
-        <v>9665279</v>
+        <v>9629607</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12190,10 +12258,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="D247" t="n">
-        <v>3872022</v>
+        <v>3857022</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12334,10 +12402,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D250" t="n">
-        <v>1429767</v>
+        <v>1414894</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12450,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D251" t="n">
-        <v>276550</v>
+        <v>275050</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12430,10 +12498,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D252" t="n">
-        <v>204400</v>
+        <v>198400</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12546,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>9545</v>
+        <v>9506</v>
       </c>
       <c r="D253" t="n">
-        <v>12184819</v>
+        <v>12136403</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12670,10 +12738,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4084</v>
+        <v>4075</v>
       </c>
       <c r="D257" t="n">
-        <v>5998117</v>
+        <v>5984617</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12718,10 +12786,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12766,10 +12834,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="D259" t="n">
-        <v>3027112</v>
+        <v>3016612</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -12814,10 +12882,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D260" t="n">
-        <v>140696</v>
+        <v>139196</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12862,10 +12930,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D261" t="n">
-        <v>165681</v>
+        <v>164181</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12978,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5412</v>
+        <v>5389</v>
       </c>
       <c r="D262" t="n">
-        <v>6712162</v>
+        <v>6686970</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -13054,10 +13122,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="D265" t="n">
-        <v>2888391</v>
+        <v>2883295</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13342,10 +13410,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>18473</v>
+        <v>18360</v>
       </c>
       <c r="D271" t="n">
-        <v>23373401</v>
+        <v>23235759</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13438,10 +13506,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D273" t="n">
-        <v>17794</v>
+        <v>16294</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13534,10 +13602,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>7761</v>
+        <v>7734</v>
       </c>
       <c r="D275" t="n">
-        <v>11380509</v>
+        <v>11340785</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13630,10 +13698,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2410</v>
+        <v>2403</v>
       </c>
       <c r="D277" t="n">
-        <v>3463413</v>
+        <v>3452913</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13746,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D278" t="n">
-        <v>684015</v>
+        <v>681098</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13774,10 +13842,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D280" t="n">
-        <v>612456</v>
+        <v>607956</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13870,10 +13938,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>16095</v>
+        <v>16012</v>
       </c>
       <c r="D282" t="n">
-        <v>19953370</v>
+        <v>19854611</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -14062,10 +14130,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>7043</v>
+        <v>7017</v>
       </c>
       <c r="D286" t="n">
-        <v>10327047</v>
+        <v>10289906</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14110,10 +14178,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3229</v>
+        <v>3214</v>
       </c>
       <c r="D287" t="n">
-        <v>4679466</v>
+        <v>4660514</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14254,10 +14322,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D290" t="n">
-        <v>425318</v>
+        <v>425027</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14370,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>9086</v>
+        <v>9039</v>
       </c>
       <c r="D291" t="n">
-        <v>11423325</v>
+        <v>11361023</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14418,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D292" t="n">
-        <v>17623</v>
+        <v>16123</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14494,10 +14562,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3825</v>
+        <v>3821</v>
       </c>
       <c r="D295" t="n">
-        <v>5600617</v>
+        <v>5594617</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14610,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D296" t="n">
-        <v>1766485</v>
+        <v>1759886</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14658,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D297" t="n">
-        <v>307165</v>
+        <v>305665</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14734,10 +14802,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D300" t="n">
-        <v>284948</v>
+        <v>278948</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14850,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8856</v>
+        <v>8805</v>
       </c>
       <c r="D301" t="n">
-        <v>11558283</v>
+        <v>11490553</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14974,10 +15042,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3549</v>
+        <v>3532</v>
       </c>
       <c r="D305" t="n">
-        <v>5187867</v>
+        <v>5162367</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15090,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2224</v>
+        <v>2215</v>
       </c>
       <c r="D306" t="n">
-        <v>3232909</v>
+        <v>3219409</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15118,10 +15186,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D308" t="n">
-        <v>139387</v>
+        <v>137887</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -15166,10 +15234,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>10685</v>
+        <v>10630</v>
       </c>
       <c r="D309" t="n">
-        <v>14021487</v>
+        <v>13952121</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15358,10 +15426,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3625</v>
+        <v>3605</v>
       </c>
       <c r="D313" t="n">
-        <v>5316054</v>
+        <v>5286054</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15454,10 +15522,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2619</v>
+        <v>2611</v>
       </c>
       <c r="D315" t="n">
-        <v>3799893</v>
+        <v>3787993</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15502,10 +15570,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D316" t="n">
-        <v>337024</v>
+        <v>334024</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15550,10 +15618,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D317" t="n">
-        <v>210517</v>
+        <v>208369</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -15598,10 +15666,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>6685</v>
+        <v>6663</v>
       </c>
       <c r="D318" t="n">
-        <v>8268875</v>
+        <v>8247055</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15790,10 +15858,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="D322" t="n">
-        <v>3304166</v>
+        <v>3296666</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15954,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D324" t="n">
-        <v>1080278</v>
+        <v>1077278</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +16002,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D325" t="n">
-        <v>82428</v>
+        <v>80928</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16098,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7356</v>
+        <v>7321</v>
       </c>
       <c r="D327" t="n">
-        <v>9221370</v>
+        <v>9180704</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16222,10 +16290,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3047</v>
+        <v>3038</v>
       </c>
       <c r="D331" t="n">
-        <v>4454173</v>
+        <v>4441347</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16338,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D332" t="n">
-        <v>1797059</v>
+        <v>1791059</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16434,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D334" t="n">
-        <v>166510</v>
+        <v>165010</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16482,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>30884</v>
+        <v>30730</v>
       </c>
       <c r="D335" t="n">
-        <v>38849914</v>
+        <v>38665397</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16606,10 +16674,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D339" t="n">
-        <v>42394</v>
+        <v>40894</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16702,10 +16770,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>16081</v>
+        <v>16043</v>
       </c>
       <c r="D341" t="n">
-        <v>23528779</v>
+        <v>23475169</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -16846,10 +16914,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>7748</v>
+        <v>7720</v>
       </c>
       <c r="D344" t="n">
-        <v>11165650</v>
+        <v>11128572</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16962,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D345" t="n">
-        <v>855079</v>
+        <v>853579</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +17010,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D346" t="n">
-        <v>1003237</v>
+        <v>996295</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -16990,10 +17058,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3805</v>
+        <v>3788</v>
       </c>
       <c r="D347" t="n">
-        <v>4752256</v>
+        <v>4730043</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17134,10 +17202,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D350" t="n">
-        <v>2149461</v>
+        <v>2147961</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17250,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D351" t="n">
-        <v>828442</v>
+        <v>825442</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17374,10 +17442,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>18800</v>
+        <v>18706</v>
       </c>
       <c r="D355" t="n">
-        <v>23449443</v>
+        <v>23334565</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -17566,10 +17634,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>9587</v>
+        <v>9571</v>
       </c>
       <c r="D359" t="n">
-        <v>14065796</v>
+        <v>14043162</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17662,10 +17730,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4600</v>
+        <v>4584</v>
       </c>
       <c r="D361" t="n">
-        <v>6664121</v>
+        <v>6641907</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17778,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D362" t="n">
-        <v>822469</v>
+        <v>820969</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17826,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D363" t="n">
-        <v>454570</v>
+        <v>451570</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17874,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>13520</v>
+        <v>13445</v>
       </c>
       <c r="D364" t="n">
-        <v>16922230</v>
+        <v>16829620</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17998,10 +18066,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>6313</v>
+        <v>6306</v>
       </c>
       <c r="D368" t="n">
-        <v>9243856</v>
+        <v>9233754</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18094,10 +18162,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D370" t="n">
-        <v>3470814</v>
+        <v>3464814</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18190,10 +18258,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D372" t="n">
-        <v>339217</v>
+        <v>337717</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18238,10 +18306,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>17520</v>
+        <v>17431</v>
       </c>
       <c r="D373" t="n">
-        <v>21856701</v>
+        <v>21746037</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18430,10 +18498,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>7021</v>
+        <v>6995</v>
       </c>
       <c r="D377" t="n">
-        <v>10325934</v>
+        <v>10286934</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18526,10 +18594,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2748</v>
+        <v>2735</v>
       </c>
       <c r="D379" t="n">
-        <v>4000823</v>
+        <v>3981373</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18670,10 +18738,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D382" t="n">
-        <v>528404</v>
+        <v>519404</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18786,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4023</v>
+        <v>4010</v>
       </c>
       <c r="D383" t="n">
-        <v>5045362</v>
+        <v>5030091</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18882,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D385" t="n">
-        <v>49465</v>
+        <v>47965</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18930,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D386" t="n">
-        <v>2003067</v>
+        <v>1996972</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18978,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D387" t="n">
-        <v>809931</v>
+        <v>808431</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -19006,10 +19074,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D389" t="n">
-        <v>110810</v>
+        <v>107810</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19122,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>21726</v>
+        <v>21627</v>
       </c>
       <c r="D390" t="n">
-        <v>26997420</v>
+        <v>26879048</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19198,10 +19266,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>9155</v>
+        <v>9141</v>
       </c>
       <c r="D393" t="n">
-        <v>13483246</v>
+        <v>13462246</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19294,10 +19362,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6051</v>
+        <v>6039</v>
       </c>
       <c r="D395" t="n">
-        <v>8798808</v>
+        <v>8781350</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19438,10 +19506,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>10911</v>
+        <v>10861</v>
       </c>
       <c r="D398" t="n">
-        <v>13459584</v>
+        <v>13399409</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -19486,10 +19554,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>6628</v>
+        <v>5803</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -19678,10 +19746,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>5228</v>
+        <v>5217</v>
       </c>
       <c r="D403" t="n">
-        <v>7644473</v>
+        <v>7628794</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19774,10 +19842,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="D405" t="n">
-        <v>2609493</v>
+        <v>2597691</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19890,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D406" t="n">
-        <v>184105</v>
+        <v>183468</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19918,10 +19986,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>29757</v>
+        <v>29362</v>
       </c>
       <c r="D408" t="n">
-        <v>40326921</v>
+        <v>39814246</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -20110,10 +20178,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>7451</v>
+        <v>7376</v>
       </c>
       <c r="D412" t="n">
-        <v>10973440</v>
+        <v>10862848</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20206,10 +20274,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>6706</v>
+        <v>6611</v>
       </c>
       <c r="D414" t="n">
-        <v>9717049</v>
+        <v>9581276</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20370,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D416" t="n">
-        <v>672805</v>
+        <v>666855</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20418,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D417" t="n">
-        <v>653139</v>
+        <v>645773</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20466,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7605</v>
+        <v>7496</v>
       </c>
       <c r="D418" t="n">
-        <v>10535403</v>
+        <v>10390844</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20494,10 +20562,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1932</v>
+        <v>1897</v>
       </c>
       <c r="D420" t="n">
-        <v>2842255</v>
+        <v>2791434</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20590,10 +20658,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2621</v>
+        <v>2569</v>
       </c>
       <c r="D422" t="n">
-        <v>3827867</v>
+        <v>3750875</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -20686,10 +20754,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D424" t="n">
-        <v>157620</v>
+        <v>151620</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20802,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D425" t="n">
-        <v>181689</v>
+        <v>180189</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20850,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>10800</v>
+        <v>10757</v>
       </c>
       <c r="D426" t="n">
-        <v>13342158</v>
+        <v>13287405</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20926,10 +20994,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3729</v>
+        <v>3721</v>
       </c>
       <c r="D429" t="n">
-        <v>5476303</v>
+        <v>5464303</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21022,10 +21090,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="D431" t="n">
-        <v>2605595</v>
+        <v>2593090</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -21070,10 +21138,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D432" t="n">
-        <v>154485</v>
+        <v>152985</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21166,10 +21234,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>61059</v>
+        <v>60714</v>
       </c>
       <c r="D434" t="n">
-        <v>75728286</v>
+        <v>75313165</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21426,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>24438</v>
+        <v>24371</v>
       </c>
       <c r="D438" t="n">
-        <v>35835148</v>
+        <v>35736567</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21454,10 +21522,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12538</v>
+        <v>12483</v>
       </c>
       <c r="D440" t="n">
-        <v>18187183</v>
+        <v>18104813</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21570,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D441" t="n">
-        <v>616403</v>
+        <v>611903</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21646,10 +21714,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D444" t="n">
-        <v>1379583</v>
+        <v>1362506</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21742,10 +21810,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>18431</v>
+        <v>18330</v>
       </c>
       <c r="D446" t="n">
-        <v>23309339</v>
+        <v>23175659</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21886,10 +21954,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D449" t="n">
-        <v>222976</v>
+        <v>221476</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +22002,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>7539</v>
+        <v>7518</v>
       </c>
       <c r="D450" t="n">
-        <v>11068999</v>
+        <v>11038629</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22030,10 +22098,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>4703</v>
+        <v>4674</v>
       </c>
       <c r="D452" t="n">
-        <v>6826982</v>
+        <v>6784885</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22194,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D454" t="n">
-        <v>364595</v>
+        <v>360095</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22242,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>31592</v>
+        <v>31480</v>
       </c>
       <c r="D455" t="n">
-        <v>38644441</v>
+        <v>38515396</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22318,10 +22386,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D458" t="n">
-        <v>436784</v>
+        <v>435284</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22366,10 +22434,10 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>11251</v>
+        <v>11229</v>
       </c>
       <c r="D459" t="n">
-        <v>16469872</v>
+        <v>16436872</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -22462,10 +22530,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4816</v>
+        <v>4801</v>
       </c>
       <c r="D461" t="n">
-        <v>6988884</v>
+        <v>6968181</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22578,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D462" t="n">
-        <v>491498</v>
+        <v>488498</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22626,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D463" t="n">
-        <v>526723</v>
+        <v>525223</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22674,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>14009</v>
+        <v>13954</v>
       </c>
       <c r="D464" t="n">
-        <v>17144162</v>
+        <v>17077128</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22846,10 +22914,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4313</v>
+        <v>4301</v>
       </c>
       <c r="D469" t="n">
-        <v>6337495</v>
+        <v>6320124</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22942,10 +23010,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="D471" t="n">
-        <v>2945115</v>
+        <v>2926807</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -23038,10 +23106,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D473" t="n">
-        <v>414629</v>
+        <v>413129</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23154,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>34319</v>
+        <v>34051</v>
       </c>
       <c r="D474" t="n">
-        <v>44707269</v>
+        <v>44346278</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23278,10 +23346,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>13169</v>
+        <v>13111</v>
       </c>
       <c r="D478" t="n">
-        <v>19381538</v>
+        <v>19296212</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23374,10 +23442,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>11573</v>
+        <v>11496</v>
       </c>
       <c r="D480" t="n">
-        <v>16888451</v>
+        <v>16774426</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -23422,10 +23490,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D481" t="n">
-        <v>264429</v>
+        <v>256929</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23538,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D482" t="n">
-        <v>406448</v>
+        <v>395948</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23586,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>58760</v>
+        <v>58111</v>
       </c>
       <c r="D483" t="n">
-        <v>77777661</v>
+        <v>76901220</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23662,10 +23730,10 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D486" t="n">
-        <v>184955</v>
+        <v>183455</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -23758,10 +23826,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>22331</v>
+        <v>22206</v>
       </c>
       <c r="D488" t="n">
-        <v>32800269</v>
+        <v>32616132</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23854,10 +23922,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>21505</v>
+        <v>21353</v>
       </c>
       <c r="D490" t="n">
-        <v>31227383</v>
+        <v>31007393</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23998,10 +24066,10 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D493" t="n">
-        <v>813596</v>
+        <v>805205</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -24046,10 +24114,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>142686</v>
+        <v>141279</v>
       </c>
       <c r="D494" t="n">
-        <v>187743930</v>
+        <v>185913979</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24094,10 +24162,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D495" t="n">
-        <v>47434</v>
+        <v>45934</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24286,10 +24354,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D499" t="n">
-        <v>657482</v>
+        <v>652982</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -24382,10 +24450,10 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>78391</v>
+        <v>77905</v>
       </c>
       <c r="D501" t="n">
-        <v>115212593</v>
+        <v>114506720</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -24430,10 +24498,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D502" t="n">
-        <v>328342</v>
+        <v>325342</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24594,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>57269</v>
+        <v>56900</v>
       </c>
       <c r="D504" t="n">
-        <v>83186831</v>
+        <v>82647210</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24622,10 +24690,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D506" t="n">
-        <v>1420565</v>
+        <v>1398816</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24718,10 +24786,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2528</v>
+        <v>2499</v>
       </c>
       <c r="D508" t="n">
-        <v>3569909</v>
+        <v>3529317</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24814,10 +24882,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>39564</v>
+        <v>39245</v>
       </c>
       <c r="D510" t="n">
-        <v>51392326</v>
+        <v>50976217</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24930,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D511" t="n">
-        <v>32437</v>
+        <v>30937</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -25054,10 +25122,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>14893</v>
+        <v>14837</v>
       </c>
       <c r="D515" t="n">
-        <v>21883867</v>
+        <v>21805006</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25150,10 +25218,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>12474</v>
+        <v>12396</v>
       </c>
       <c r="D517" t="n">
-        <v>18084622</v>
+        <v>17970535</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25266,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D518" t="n">
-        <v>431345</v>
+        <v>429845</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25314,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D519" t="n">
-        <v>476026</v>
+        <v>462079</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25342,10 +25410,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>61923</v>
+        <v>61075</v>
       </c>
       <c r="D521" t="n">
-        <v>83187745</v>
+        <v>82014979</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25554,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D524" t="n">
-        <v>192207</v>
+        <v>184707</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25602,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>22475</v>
+        <v>22344</v>
       </c>
       <c r="D525" t="n">
-        <v>33178015</v>
+        <v>32988220</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25698,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>23061</v>
+        <v>22891</v>
       </c>
       <c r="D527" t="n">
-        <v>33760073</v>
+        <v>33511026</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25726,10 +25794,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D529" t="n">
-        <v>349987</v>
+        <v>348487</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25774,10 +25842,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D530" t="n">
-        <v>1099035</v>
+        <v>1087156</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25822,10 +25890,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>51968</v>
+        <v>51310</v>
       </c>
       <c r="D531" t="n">
-        <v>68861136</v>
+        <v>67987107</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25966,10 +26034,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>17182</v>
+        <v>17101</v>
       </c>
       <c r="D534" t="n">
-        <v>25247253</v>
+        <v>25131387</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26062,10 +26130,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>17574</v>
+        <v>17435</v>
       </c>
       <c r="D536" t="n">
-        <v>25564342</v>
+        <v>25358721</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26226,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D538" t="n">
-        <v>799264</v>
+        <v>787804</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26274,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>39476</v>
+        <v>39037</v>
       </c>
       <c r="D539" t="n">
-        <v>52407641</v>
+        <v>51801997</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26398,10 +26466,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>13830</v>
+        <v>13769</v>
       </c>
       <c r="D543" t="n">
-        <v>20408310</v>
+        <v>20317510</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26562,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>13849</v>
+        <v>13739</v>
       </c>
       <c r="D545" t="n">
-        <v>20122669</v>
+        <v>19961046</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26610,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D546" t="n">
-        <v>242479</v>
+        <v>237979</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26658,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D547" t="n">
-        <v>354224</v>
+        <v>352724</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26706,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>39660</v>
+        <v>39322</v>
       </c>
       <c r="D548" t="n">
-        <v>51429303</v>
+        <v>50996289</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26830,10 +26898,10 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>15758</v>
+        <v>15688</v>
       </c>
       <c r="D552" t="n">
-        <v>23129045</v>
+        <v>23028041</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -26878,10 +26946,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D553" t="n">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26994,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>12550</v>
+        <v>12453</v>
       </c>
       <c r="D554" t="n">
-        <v>18159431</v>
+        <v>18021075</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -27070,10 +27138,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D557" t="n">
-        <v>461715</v>
+        <v>449267</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27186,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>42126</v>
+        <v>41844</v>
       </c>
       <c r="D558" t="n">
-        <v>56330028</v>
+        <v>55968424</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27310,10 +27378,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D562" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27474,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>13530</v>
+        <v>13480</v>
       </c>
       <c r="D564" t="n">
-        <v>19860035</v>
+        <v>19788566</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27454,10 +27522,10 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3564</v>
+        <v>3554</v>
       </c>
       <c r="D565" t="n">
-        <v>5141043</v>
+        <v>5126777</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -27598,10 +27666,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D568" t="n">
-        <v>532222</v>
+        <v>526222</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27694,10 +27762,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D570" t="n">
-        <v>487809</v>
+        <v>484809</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27810,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>16412</v>
+        <v>16265</v>
       </c>
       <c r="D571" t="n">
-        <v>21742798</v>
+        <v>21548220</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27934,10 +28002,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6791</v>
+        <v>6745</v>
       </c>
       <c r="D575" t="n">
-        <v>9885802</v>
+        <v>9818212</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -28030,10 +28098,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4625</v>
+        <v>4597</v>
       </c>
       <c r="D577" t="n">
-        <v>6657989</v>
+        <v>6621175</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28174,10 +28242,10 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D580" t="n">
-        <v>355433</v>
+        <v>340433</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -28270,10 +28338,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>13659</v>
+        <v>13368</v>
       </c>
       <c r="D582" t="n">
-        <v>19817831</v>
+        <v>19383614</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28386,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="D583" t="n">
-        <v>2429138</v>
+        <v>2408338</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28434,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D584" t="n">
-        <v>317302</v>
+        <v>312802</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28510,10 +28578,10 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D587" t="n">
-        <v>118449</v>
+        <v>115449</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -28558,10 +28626,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>21415</v>
+        <v>21331</v>
       </c>
       <c r="D588" t="n">
-        <v>26871866</v>
+        <v>26775357</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28798,10 +28866,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>8802</v>
+        <v>8780</v>
       </c>
       <c r="D593" t="n">
-        <v>12897838</v>
+        <v>12864838</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28894,10 +28962,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3268</v>
+        <v>3261</v>
       </c>
       <c r="D595" t="n">
-        <v>4695555</v>
+        <v>4685055</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +29010,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D596" t="n">
-        <v>476359</v>
+        <v>472011</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +29058,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D597" t="n">
-        <v>615328</v>
+        <v>604828</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29086,10 +29154,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>14300</v>
+        <v>14233</v>
       </c>
       <c r="D599" t="n">
-        <v>17932590</v>
+        <v>17857960</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29278,10 +29346,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>5684</v>
+        <v>5671</v>
       </c>
       <c r="D603" t="n">
-        <v>8349640</v>
+        <v>8330485</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29374,10 +29442,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="D605" t="n">
-        <v>3731542</v>
+        <v>3722542</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29470,10 +29538,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D607" t="n">
-        <v>241451</v>
+        <v>239951</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29518,10 +29586,10 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>13441</v>
+        <v>13383</v>
       </c>
       <c r="D608" t="n">
-        <v>17020016</v>
+        <v>16949999</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -29710,10 +29778,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>5097</v>
+        <v>5081</v>
       </c>
       <c r="D612" t="n">
-        <v>7472349</v>
+        <v>7448497</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29826,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D613" t="n">
-        <v>1637468</v>
+        <v>1632968</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29854,10 +29922,10 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D615" t="n">
-        <v>360895</v>
+        <v>359395</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -29902,10 +29970,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D616" t="n">
-        <v>350923</v>
+        <v>346423</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +30018,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>7343</v>
+        <v>7314</v>
       </c>
       <c r="D617" t="n">
-        <v>9450231</v>
+        <v>9415691</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -30190,10 +30258,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2515</v>
+        <v>2508</v>
       </c>
       <c r="D622" t="n">
-        <v>3687889</v>
+        <v>3677389</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30238,10 +30306,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D623" t="n">
-        <v>1194771</v>
+        <v>1194194</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30354,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D624" t="n">
-        <v>243805</v>
+        <v>242305</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30402,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D625" t="n">
-        <v>173507</v>
+        <v>172007</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30382,10 +30450,10 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>28108</v>
+        <v>27934</v>
       </c>
       <c r="D626" t="n">
-        <v>34625605</v>
+        <v>34429095</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -30526,10 +30594,10 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D629" t="n">
-        <v>212997</v>
+        <v>211897</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -30574,10 +30642,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>10792</v>
+        <v>10768</v>
       </c>
       <c r="D630" t="n">
-        <v>15841448</v>
+        <v>15806030</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30670,10 +30738,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>4668</v>
+        <v>4652</v>
       </c>
       <c r="D632" t="n">
-        <v>6776553</v>
+        <v>6752553</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30814,10 +30882,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D635" t="n">
-        <v>725074</v>
+        <v>720574</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30930,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>11074</v>
+        <v>11035</v>
       </c>
       <c r="D636" t="n">
-        <v>13440584</v>
+        <v>13394798</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31102,10 +31170,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="D641" t="n">
-        <v>5243969</v>
+        <v>5237969</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31150,10 +31218,10 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D642" t="n">
-        <v>1561206</v>
+        <v>1557673</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -31246,10 +31314,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D644" t="n">
-        <v>118752</v>
+        <v>117722</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31362,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D645" t="n">
-        <v>297499</v>
+        <v>295266</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31410,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>27605</v>
+        <v>27486</v>
       </c>
       <c r="D646" t="n">
-        <v>34366767</v>
+        <v>34234035</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31534,10 +31602,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>10560</v>
+        <v>10533</v>
       </c>
       <c r="D650" t="n">
-        <v>15521724</v>
+        <v>15481826</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31698,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3002</v>
+        <v>2990</v>
       </c>
       <c r="D652" t="n">
-        <v>4328514</v>
+        <v>4311932</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31726,10 +31794,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D654" t="n">
-        <v>690111</v>
+        <v>688611</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31842,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D655" t="n">
-        <v>614463</v>
+        <v>605463</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31890,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>7274</v>
+        <v>7252</v>
       </c>
       <c r="D656" t="n">
-        <v>9229058</v>
+        <v>9198048</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31918,10 +31986,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="D658" t="n">
-        <v>3804255</v>
+        <v>3795255</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -32062,10 +32130,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D661" t="n">
-        <v>331184</v>
+        <v>328184</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32158,10 +32226,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D663" t="n">
-        <v>219843</v>
+        <v>219161</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32206,10 +32274,10 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3653</v>
+        <v>3636</v>
       </c>
       <c r="D664" t="n">
-        <v>4425150</v>
+        <v>4406612</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -32398,10 +32466,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D668" t="n">
-        <v>1118957</v>
+        <v>1117457</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32494,10 +32562,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D670" t="n">
-        <v>617914</v>
+        <v>616414</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32610,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D671" t="n">
-        <v>157430</v>
+        <v>155930</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32638,10 +32706,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>9091</v>
+        <v>9053</v>
       </c>
       <c r="D673" t="n">
-        <v>11366778</v>
+        <v>11325465</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32830,10 +32898,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3414</v>
+        <v>3408</v>
       </c>
       <c r="D677" t="n">
-        <v>5033222</v>
+        <v>5024222</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32946,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D678" t="n">
-        <v>1049968</v>
+        <v>1048468</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +33042,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D680" t="n">
-        <v>226299</v>
+        <v>224799</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33090,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D681" t="n">
-        <v>354703</v>
+        <v>351703</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33138,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>18663</v>
+        <v>18595</v>
       </c>
       <c r="D682" t="n">
-        <v>22858954</v>
+        <v>22778152</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33262,10 +33330,10 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>5573</v>
+        <v>5559</v>
       </c>
       <c r="D686" t="n">
-        <v>8141064</v>
+        <v>8120573</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -33358,10 +33426,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2186</v>
+        <v>2177</v>
       </c>
       <c r="D688" t="n">
-        <v>3145530</v>
+        <v>3132030</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33474,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D689" t="n">
-        <v>490822</v>
+        <v>487822</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33550,10 +33618,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>71748</v>
+        <v>71346</v>
       </c>
       <c r="D692" t="n">
-        <v>90326000</v>
+        <v>89819033</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33790,10 +33858,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>25882</v>
+        <v>25826</v>
       </c>
       <c r="D697" t="n">
-        <v>38013832</v>
+        <v>37932254</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33934,10 +34002,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>12725</v>
+        <v>12687</v>
       </c>
       <c r="D700" t="n">
-        <v>18356834</v>
+        <v>18302561</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34146,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D703" t="n">
-        <v>2641648</v>
+        <v>2639967</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34174,10 +34242,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D705" t="n">
-        <v>1545685</v>
+        <v>1529543</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34290,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10734</v>
+        <v>10673</v>
       </c>
       <c r="D706" t="n">
-        <v>13140651</v>
+        <v>13072918</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34366,10 +34434,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>4028</v>
+        <v>4018</v>
       </c>
       <c r="D709" t="n">
-        <v>5891073</v>
+        <v>5878813</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34462,10 +34530,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="D711" t="n">
-        <v>2112440</v>
+        <v>2104000</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34558,10 +34626,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D713" t="n">
-        <v>316303</v>
+        <v>314856</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34674,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>17178</v>
+        <v>17094</v>
       </c>
       <c r="D714" t="n">
-        <v>21212313</v>
+        <v>21118813</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34798,10 +34866,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6701</v>
+        <v>6682</v>
       </c>
       <c r="D718" t="n">
-        <v>9795159</v>
+        <v>9767133</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34894,10 +34962,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="D720" t="n">
-        <v>3030469</v>
+        <v>3021891</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -35038,10 +35106,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D723" t="n">
-        <v>418641</v>
+        <v>415641</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35134,10 +35202,10 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>11167</v>
+        <v>11100</v>
       </c>
       <c r="D725" t="n">
-        <v>13796471</v>
+        <v>13712875</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -35326,10 +35394,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>4154</v>
+        <v>4147</v>
       </c>
       <c r="D729" t="n">
-        <v>6090721</v>
+        <v>6081445</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35422,10 +35490,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="D731" t="n">
-        <v>2258804</v>
+        <v>2242304</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35566,10 +35634,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>28655</v>
+        <v>28535</v>
       </c>
       <c r="D734" t="n">
-        <v>35685631</v>
+        <v>35540981</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35806,10 +35874,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>12362</v>
+        <v>12328</v>
       </c>
       <c r="D739" t="n">
-        <v>18094157</v>
+        <v>18043923</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35970,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>4052</v>
+        <v>4041</v>
       </c>
       <c r="D741" t="n">
-        <v>5795661</v>
+        <v>5780582</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +36066,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D743" t="n">
-        <v>1019312</v>
+        <v>1017812</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36114,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D744" t="n">
-        <v>893949</v>
+        <v>884949</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36094,10 +36162,10 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D745" t="n">
-        <v>10411</v>
+        <v>9679</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -36142,10 +36210,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>11880</v>
+        <v>11809</v>
       </c>
       <c r="D746" t="n">
-        <v>14725422</v>
+        <v>14636412</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36286,10 +36354,10 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>4547</v>
+        <v>4540</v>
       </c>
       <c r="D749" t="n">
-        <v>6645684</v>
+        <v>6636043</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -36334,10 +36402,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="D750" t="n">
-        <v>1594720</v>
+        <v>1583657</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36382,10 +36450,10 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D751" t="n">
-        <v>236032</v>
+        <v>233712</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -36430,10 +36498,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D752" t="n">
-        <v>501857</v>
+        <v>494354</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36478,10 +36546,10 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>6462</v>
+        <v>6417</v>
       </c>
       <c r="D753" t="n">
-        <v>7599059</v>
+        <v>7549566</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -36718,10 +36786,10 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D758" t="n">
-        <v>1392695</v>
+        <v>1387294</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -36766,10 +36834,10 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D759" t="n">
-        <v>207333</v>
+        <v>206994</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -36814,10 +36882,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D760" t="n">
-        <v>203015</v>
+        <v>201515</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36862,10 +36930,10 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>16285</v>
+        <v>16194</v>
       </c>
       <c r="D761" t="n">
-        <v>19760941</v>
+        <v>19662666</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -37006,10 +37074,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D764" t="n">
-        <v>62920</v>
+        <v>59920</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37102,10 +37170,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>5348</v>
+        <v>5337</v>
       </c>
       <c r="D766" t="n">
-        <v>7839255</v>
+        <v>7823043</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -37198,10 +37266,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3273</v>
+        <v>3257</v>
       </c>
       <c r="D768" t="n">
-        <v>4786054</v>
+        <v>4763881</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -37294,10 +37362,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D770" t="n">
-        <v>508928</v>
+        <v>505928</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37410,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D771" t="n">
-        <v>337040</v>
+        <v>333069</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37390,10 +37458,10 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>11028</v>
+        <v>10971</v>
       </c>
       <c r="D772" t="n">
-        <v>13988026</v>
+        <v>13924368</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -37534,10 +37602,10 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3851</v>
+        <v>3846</v>
       </c>
       <c r="D775" t="n">
-        <v>5633918</v>
+        <v>5626418</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -37630,10 +37698,10 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D777" t="n">
-        <v>1743225</v>
+        <v>1737225</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -37726,10 +37794,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D779" t="n">
-        <v>680595</v>
+        <v>677595</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37842,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D780" t="n">
-        <v>301133</v>
+        <v>294400</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37890,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>31181</v>
+        <v>31018</v>
       </c>
       <c r="D781" t="n">
-        <v>38472558</v>
+        <v>38276214</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -38014,10 +38082,10 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>12851</v>
+        <v>12810</v>
       </c>
       <c r="D785" t="n">
-        <v>18811098</v>
+        <v>18751798</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -38110,10 +38178,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>5869</v>
+        <v>5861</v>
       </c>
       <c r="D787" t="n">
-        <v>8482609</v>
+        <v>8470929</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38158,10 +38226,10 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D788" t="n">
-        <v>697356</v>
+        <v>692156</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -38254,10 +38322,10 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D790" t="n">
-        <v>860910</v>
+        <v>845231</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -38302,10 +38370,10 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>7359</v>
+        <v>7330</v>
       </c>
       <c r="D791" t="n">
-        <v>9105816</v>
+        <v>9070745</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -38590,10 +38658,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="D797" t="n">
-        <v>3793733</v>
+        <v>3789244</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38706,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D798" t="n">
-        <v>1588613</v>
+        <v>1584113</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38686,10 +38754,10 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D799" t="n">
-        <v>480631</v>
+        <v>479131</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -38734,10 +38802,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D800" t="n">
-        <v>304255</v>
+        <v>302755</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38782,10 +38850,10 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>56254</v>
+        <v>55850</v>
       </c>
       <c r="D801" t="n">
-        <v>70261498</v>
+        <v>69755990</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -39022,10 +39090,10 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>20484</v>
+        <v>20439</v>
       </c>
       <c r="D806" t="n">
-        <v>29992591</v>
+        <v>29925827</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -39166,10 +39234,10 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>12133</v>
+        <v>12082</v>
       </c>
       <c r="D809" t="n">
-        <v>17517022</v>
+        <v>17442712</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -39262,10 +39330,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D811" t="n">
-        <v>622161</v>
+        <v>611661</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39406,10 +39474,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="D814" t="n">
-        <v>1714361</v>
+        <v>1696955</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39454,10 +39522,10 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>10709</v>
+        <v>10652</v>
       </c>
       <c r="D815" t="n">
-        <v>13389213</v>
+        <v>13308490</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -39598,10 +39666,10 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D818" t="n">
-        <v>50659</v>
+        <v>49159</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -39646,10 +39714,10 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3770</v>
+        <v>3747</v>
       </c>
       <c r="D819" t="n">
-        <v>5481390</v>
+        <v>5448785</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -39742,10 +39810,10 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="D821" t="n">
-        <v>1724091</v>
+        <v>1705511</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -39934,10 +40002,10 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D825" t="n">
-        <v>331790</v>
+        <v>328790</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -39982,10 +40050,10 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>56528</v>
+        <v>56237</v>
       </c>
       <c r="D826" t="n">
-        <v>69971935</v>
+        <v>69621152</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -40270,10 +40338,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>21709</v>
+        <v>21657</v>
       </c>
       <c r="D832" t="n">
-        <v>31861265</v>
+        <v>31784565</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40366,10 +40434,10 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>13789</v>
+        <v>13744</v>
       </c>
       <c r="D834" t="n">
-        <v>19980454</v>
+        <v>19914994</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -40414,10 +40482,10 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D835" t="n">
-        <v>9403</v>
+        <v>8556</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -40462,10 +40530,10 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D836" t="n">
-        <v>1238231</v>
+        <v>1231012</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -40510,10 +40578,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="D837" t="n">
-        <v>1574777</v>
+        <v>1556914</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40606,10 +40674,10 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>7509</v>
+        <v>7471</v>
       </c>
       <c r="D839" t="n">
-        <v>9216378</v>
+        <v>9172676</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -40702,10 +40770,10 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="D841" t="n">
-        <v>3625653</v>
+        <v>3618545</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -40750,10 +40818,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D842" t="n">
-        <v>1516472</v>
+        <v>1514830</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40914,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D844" t="n">
-        <v>242399</v>
+        <v>234655</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -40894,10 +40962,10 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3231</v>
+        <v>3202</v>
       </c>
       <c r="D845" t="n">
-        <v>4159955</v>
+        <v>4124658</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -41038,10 +41106,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D848" t="n">
-        <v>1667929</v>
+        <v>1665356</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41134,10 +41202,10 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D850" t="n">
-        <v>521750</v>
+        <v>520250</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -41278,10 +41346,10 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>21650</v>
+        <v>21538</v>
       </c>
       <c r="D853" t="n">
-        <v>27168315</v>
+        <v>27022748</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -41422,10 +41490,10 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D856" t="n">
-        <v>55539</v>
+        <v>54039</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -41470,10 +41538,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>7510</v>
+        <v>7485</v>
       </c>
       <c r="D857" t="n">
-        <v>10959665</v>
+        <v>10923973</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41634,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>4454</v>
+        <v>4444</v>
       </c>
       <c r="D859" t="n">
-        <v>6444635</v>
+        <v>6430194</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41662,10 +41730,10 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D861" t="n">
-        <v>511755</v>
+        <v>509555</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -41710,10 +41778,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D862" t="n">
-        <v>554043</v>
+        <v>550445</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41874,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>14087</v>
+        <v>14013</v>
       </c>
       <c r="D864" t="n">
-        <v>16997918</v>
+        <v>16917692</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41998,10 +42066,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>5098</v>
+        <v>5079</v>
       </c>
       <c r="D868" t="n">
-        <v>7437869</v>
+        <v>7409989</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42094,10 +42162,10 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="D870" t="n">
-        <v>3271901</v>
+        <v>3263481</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -42190,10 +42258,10 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D872" t="n">
-        <v>314050</v>
+        <v>311050</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -42238,10 +42306,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D873" t="n">
-        <v>375568</v>
+        <v>368068</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42286,10 +42354,10 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>9482</v>
+        <v>9429</v>
       </c>
       <c r="D874" t="n">
-        <v>11655071</v>
+        <v>11588545</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -42430,10 +42498,10 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3281</v>
+        <v>3270</v>
       </c>
       <c r="D877" t="n">
-        <v>4811006</v>
+        <v>4794506</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -42478,10 +42546,10 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="D878" t="n">
-        <v>2090508</v>
+        <v>2083008</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -42622,10 +42690,10 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>43189</v>
+        <v>42954</v>
       </c>
       <c r="D881" t="n">
-        <v>54352011</v>
+        <v>54065901</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -42862,10 +42930,10 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>20607</v>
+        <v>20548</v>
       </c>
       <c r="D886" t="n">
-        <v>30234930</v>
+        <v>30147103</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -42958,10 +43026,10 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5701</v>
+        <v>5677</v>
       </c>
       <c r="D888" t="n">
-        <v>8213116</v>
+        <v>8179324</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -43006,10 +43074,10 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D889" t="n">
-        <v>870226</v>
+        <v>868726</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -43102,10 +43170,10 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="D891" t="n">
-        <v>1239027</v>
+        <v>1228527</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -43150,10 +43218,10 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>20613</v>
+        <v>20502</v>
       </c>
       <c r="D892" t="n">
-        <v>25673467</v>
+        <v>25538964</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -43246,10 +43314,10 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D894" t="n">
-        <v>164323</v>
+        <v>161323</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -43294,10 +43362,10 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>9571</v>
+        <v>9550</v>
       </c>
       <c r="D895" t="n">
-        <v>14025115</v>
+        <v>13994694</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -43390,10 +43458,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>2211</v>
+        <v>2199</v>
       </c>
       <c r="D897" t="n">
-        <v>3172298</v>
+        <v>3157277</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43486,10 +43554,10 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D899" t="n">
-        <v>858724</v>
+        <v>857224</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -43534,10 +43602,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D900" t="n">
-        <v>848568</v>
+        <v>842788</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43650,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>6850</v>
+        <v>6814</v>
       </c>
       <c r="D901" t="n">
-        <v>8625700</v>
+        <v>8582922</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43822,10 +43890,10 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="D906" t="n">
-        <v>4331160</v>
+        <v>4323660</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -43870,10 +43938,10 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D907" t="n">
-        <v>882106</v>
+        <v>880606</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -43918,10 +43986,10 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D908" t="n">
-        <v>216468</v>
+        <v>214968</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -43966,10 +44034,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D909" t="n">
-        <v>248925</v>
+        <v>247425</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44014,10 +44082,10 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12660</v>
+        <v>12604</v>
       </c>
       <c r="D910" t="n">
-        <v>15797585</v>
+        <v>15727896</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -44206,10 +44274,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>5137</v>
+        <v>5122</v>
       </c>
       <c r="D914" t="n">
-        <v>7508764</v>
+        <v>7487595</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44302,10 +44370,10 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="D916" t="n">
-        <v>1917329</v>
+        <v>1908162</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -44494,10 +44562,10 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D920" t="n">
-        <v>341684</v>
+        <v>338684</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -44542,10 +44610,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>18886</v>
+        <v>18812</v>
       </c>
       <c r="D921" t="n">
-        <v>23665088</v>
+        <v>23576174</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44686,10 +44754,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D924" t="n">
-        <v>188803</v>
+        <v>187303</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44734,10 +44802,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>9896</v>
+        <v>9879</v>
       </c>
       <c r="D925" t="n">
-        <v>14468207</v>
+        <v>14443789</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44830,10 +44898,10 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D927" t="n">
-        <v>2894698</v>
+        <v>2890302</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -44926,10 +44994,10 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D929" t="n">
-        <v>584829</v>
+        <v>578829</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -44974,10 +45042,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>8381</v>
+        <v>8342</v>
       </c>
       <c r="D930" t="n">
-        <v>10475645</v>
+        <v>10426819</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45214,10 +45282,10 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>3115</v>
+        <v>3105</v>
       </c>
       <c r="D935" t="n">
-        <v>4541262</v>
+        <v>4530285</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -45262,10 +45330,10 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="D936" t="n">
-        <v>2100847</v>
+        <v>2090492</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -45406,10 +45474,10 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D939" t="n">
-        <v>276765</v>
+        <v>272265</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -45454,10 +45522,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>64878</v>
+        <v>64538</v>
       </c>
       <c r="D940" t="n">
-        <v>83343751</v>
+        <v>82925369</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45550,10 +45618,10 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D942" t="n">
-        <v>101705</v>
+        <v>100205</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -45790,10 +45858,10 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>24785</v>
+        <v>24701</v>
       </c>
       <c r="D947" t="n">
-        <v>36344487</v>
+        <v>36223465</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -45886,10 +45954,10 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>16972</v>
+        <v>16885</v>
       </c>
       <c r="D949" t="n">
-        <v>24619672</v>
+        <v>24495224</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -45982,10 +46050,10 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D951" t="n">
-        <v>661123</v>
+        <v>655323</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -46030,10 +46098,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D952" t="n">
-        <v>1161578</v>
+        <v>1157078</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46078,10 +46146,10 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>80852</v>
+        <v>80423</v>
       </c>
       <c r="D953" t="n">
-        <v>101628307</v>
+        <v>101107855</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -46414,10 +46482,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>32951</v>
+        <v>32875</v>
       </c>
       <c r="D960" t="n">
-        <v>48346817</v>
+        <v>48241037</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46558,10 +46626,10 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>24334</v>
+        <v>24249</v>
       </c>
       <c r="D963" t="n">
-        <v>35310599</v>
+        <v>35184438</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -46606,10 +46674,10 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D964" t="n">
-        <v>839969</v>
+        <v>836969</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -46702,10 +46770,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>1829</v>
+        <v>1812</v>
       </c>
       <c r="D966" t="n">
-        <v>2574727</v>
+        <v>2549652</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46750,10 +46818,10 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>10451</v>
+        <v>10386</v>
       </c>
       <c r="D967" t="n">
-        <v>13645133</v>
+        <v>13565731</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -46798,10 +46866,10 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D968" t="n">
-        <v>10866</v>
+        <v>9851</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -46942,10 +47010,10 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>3382</v>
+        <v>3369</v>
       </c>
       <c r="D971" t="n">
-        <v>4938163</v>
+        <v>4920991</v>
       </c>
       <c r="E971" t="inlineStr">
         <is>
@@ -46990,10 +47058,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D972" t="n">
-        <v>1539602</v>
+        <v>1532102</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47038,10 +47106,10 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D973" t="n">
-        <v>150587</v>
+        <v>147987</v>
       </c>
       <c r="E973" t="inlineStr">
         <is>
@@ -47182,10 +47250,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D976" t="n">
-        <v>238889</v>
+        <v>237389</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47230,10 +47298,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>54426</v>
+        <v>54187</v>
       </c>
       <c r="D977" t="n">
-        <v>68194377</v>
+        <v>67903056</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47470,10 +47538,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>18138</v>
+        <v>18093</v>
       </c>
       <c r="D982" t="n">
-        <v>26573782</v>
+        <v>26508093</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47566,10 +47634,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>12258</v>
+        <v>12217</v>
       </c>
       <c r="D984" t="n">
-        <v>17742654</v>
+        <v>17681874</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47614,10 +47682,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D985" t="n">
-        <v>667773</v>
+        <v>663273</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47710,10 +47778,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="D987" t="n">
-        <v>986059</v>
+        <v>975260</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47758,10 +47826,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>27309</v>
+        <v>27165</v>
       </c>
       <c r="D988" t="n">
-        <v>34020137</v>
+        <v>33835939</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47998,10 +48066,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>10209</v>
+        <v>10180</v>
       </c>
       <c r="D993" t="n">
-        <v>14961464</v>
+        <v>14919692</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48094,10 +48162,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>6023</v>
+        <v>6001</v>
       </c>
       <c r="D995" t="n">
-        <v>8736979</v>
+        <v>8705425</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
